--- a/biology/Zoologie/Bruant_à_longue_queue/Bruant_à_longue_queue.xlsx
+++ b/biology/Zoologie/Bruant_à_longue_queue/Bruant_à_longue_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_longue_queue</t>
+          <t>Bruant_à_longue_queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza cioides
 Le Bruant à longue queue (Emberiza cioides) est une espèce de passereau appartenant à la famille des Emberizidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_longue_queue</t>
+          <t>Bruant_à_longue_queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Emberiza cioides a été décrite par le naturaliste allemand Johann Friedrich von Brandt en 1843[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emberiza cioides a été décrite par le naturaliste allemand Johann Friedrich von Brandt en 1843
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_longue_queue</t>
+          <t>Bruant_à_longue_queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des sous-espèces
 Cet oiseau est représenté par 5 sous-espèces :
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_longue_queue</t>
+          <t>Bruant_à_longue_queue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_longue_queue</t>
+          <t>Bruant_à_longue_queue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se reproduit dans le sud de la Sibérie, le nord et l'est de la Chine, le Kazakhstan oriental, le Kirghizistan, la Mongolie, la Corée et le Japon. Il n'est pas migrateur en général, mais les populations du nord migrent vers le sud aussi loin que le sud de la Chine et Taiwan. Il a été signalé plusieurs  fois en Europe, mais beaucoup d'entre eux sont considérés comme des animaux évadés de captivité plutôt que des vagabonds authentiques.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruant_%C3%A0_longue_queue</t>
+          <t>Bruant_à_longue_queue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les endroits secs, les habitats ouverts tels que les broussailles, les champs, les prairies et les forêts ouvertes.
 </t>
